--- a/final_data.xlsx
+++ b/final_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,262 +53,472 @@
     <t xml:space="preserve">CrSC_M</t>
   </si>
   <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D162</t>
+  </si>
+  <si>
     <t xml:space="preserve">D163</t>
   </si>
   <si>
+    <t xml:space="preserve">D164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D72</t>
+  </si>
+  <si>
     <t xml:space="preserve">D73</t>
   </si>
   <si>
-    <t xml:space="preserve">D14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D131</t>
+    <t xml:space="preserve">D74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D90</t>
   </si>
   <si>
     <t xml:space="preserve">D91</t>
   </si>
   <si>
-    <t xml:space="preserve">D70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D79</t>
+    <t xml:space="preserve">D92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D97</t>
   </si>
   <si>
     <t xml:space="preserve">D98</t>
   </si>
   <si>
-    <t xml:space="preserve">D137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D112</t>
+    <t xml:space="preserve">D99</t>
   </si>
 </sst>
 </file>
@@ -686,40 +896,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.780575932460278</v>
+        <v>0.0425122536481677</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00100950615030904</v>
+        <v>0.591269386522919</v>
       </c>
       <c r="D2" t="n">
         <v>0.973214285714286</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.75</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L2" t="n">
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
@@ -727,10 +937,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03355909437464</v>
+        <v>0.321082266167187</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.569551221005951</v>
+        <v>0.54449635800587</v>
       </c>
       <c r="D3" t="n">
         <v>0.986607142857143</v>
@@ -742,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -751,10 +961,10 @@
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
         <v>3.5</v>
@@ -768,13 +978,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.753122053376958</v>
+        <v>-0.193930469057315</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.542168607314626</v>
+        <v>1.07416098027799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.991071428571429</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -783,25 +993,25 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -809,40 +1019,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.699656975529142</v>
+        <v>0.259584603710042</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.349416517669472</v>
+        <v>-0.441013642164505</v>
       </c>
       <c r="D5" t="n">
-        <v>0.96875</v>
+        <v>0.973214285714286</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -850,40 +1060,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.156573830576671</v>
+        <v>-0.947982314922671</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.571607356449761</v>
+        <v>-0.965499787417106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9375</v>
+        <v>0.959821428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7">
@@ -891,40 +1101,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0856859199089128</v>
+        <v>0.0645299285981267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.402852172762886</v>
+        <v>0.0471881184437661</v>
       </c>
       <c r="D7" t="n">
-        <v>0.919642857142857</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.25</v>
       </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.75</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8">
@@ -932,37 +1142,37 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.308089960670715</v>
+        <v>-0.596134905254535</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.549546854291027</v>
+        <v>0.0929504498002611</v>
       </c>
       <c r="D8" t="n">
-        <v>0.986607142857143</v>
+        <v>0.995535714285714</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>3.5</v>
@@ -973,40 +1183,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.26374771369888</v>
+        <v>0.341046255163797</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0650655066415329</v>
+        <v>0.706418151658518</v>
       </c>
       <c r="D9" t="n">
-        <v>0.933035714285714</v>
+        <v>0.9375</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
@@ -1014,40 +1224,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0273906617842989</v>
+        <v>-0.236410811027764</v>
       </c>
       <c r="C10" t="n">
-        <v>0.629004288247708</v>
+        <v>0.306805265830929</v>
       </c>
       <c r="D10" t="n">
-        <v>0.955357142857143</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1055,40 +1265,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.596134905254535</v>
+        <v>-0.222988264113878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0929504498002611</v>
+        <v>-0.214077398896373</v>
       </c>
       <c r="D11" t="n">
-        <v>0.995535714285714</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
@@ -1096,13 +1306,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.184541483082734</v>
+        <v>0.116855319909367</v>
       </c>
       <c r="C12" t="n">
-        <v>0.402922463063339</v>
+        <v>-0.183926435155234</v>
       </c>
       <c r="D12" t="n">
-        <v>0.90625</v>
+        <v>0.924107142857143</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1111,13 +1321,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
         <v>4.75</v>
@@ -1126,10 +1336,10 @@
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1137,40 +1347,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>0.500740110232739</v>
+        <v>-0.0377542733207492</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206835322827863</v>
+        <v>-0.29929120598544</v>
       </c>
       <c r="D13" t="n">
-        <v>0.901785714285714</v>
+        <v>0.977678571428571</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1178,13 +1388,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.361846537923025</v>
+        <v>0.114108824457804</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0102439970833696</v>
+        <v>-0.415845012119493</v>
       </c>
       <c r="D14" t="n">
-        <v>0.946428571428571</v>
+        <v>0.955357142857143</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1193,22 +1403,22 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
@@ -1219,10 +1429,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>0.332078962645918</v>
+        <v>-0.699656975529142</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.196040598449901</v>
+        <v>-0.349416517669472</v>
       </c>
       <c r="D15" t="n">
         <v>0.96875</v>
@@ -1231,28 +1441,28 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
         <v>2.75</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1470,13 @@
         <v>27</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00421603111500701</v>
+        <v>0.237980670454736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.423671045322022</v>
+        <v>0.274433374675052</v>
       </c>
       <c r="D16" t="n">
-        <v>0.986607142857143</v>
+        <v>0.959821428571429</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1275,25 +1485,25 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17">
@@ -1301,40 +1511,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.455986130292609</v>
+        <v>0.267097786578131</v>
       </c>
       <c r="C17" t="n">
-        <v>0.698468523718166</v>
+        <v>-0.271693963115925</v>
       </c>
       <c r="D17" t="n">
-        <v>0.982142857142857</v>
+        <v>0.941964285714286</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
         <v>4.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18">
@@ -1342,40 +1552,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.39597762109958</v>
+        <v>-0.0811033394406229</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0466097588745682</v>
+        <v>-0.139673822915076</v>
       </c>
       <c r="D18" t="n">
-        <v>0.950892857142857</v>
+        <v>0.991071428571429</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1383,19 +1593,19 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.297420389451142</v>
+        <v>-0.329007248786418</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.100367958479398</v>
+        <v>-0.13937077533142</v>
       </c>
       <c r="D19" t="n">
-        <v>0.955357142857143</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>23</v>
@@ -1404,19 +1614,19 @@
         <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.75</v>
+        <v>4.25</v>
       </c>
       <c r="J19" t="n">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20">
@@ -1424,10 +1634,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.180087907058864</v>
+        <v>0.113606983774261</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0787708135466882</v>
+        <v>-0.454956762511554</v>
       </c>
       <c r="D20" t="n">
         <v>0.982142857142857</v>
@@ -1439,25 +1649,25 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H20" t="n">
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1465,13 +1675,13 @@
         <v>32</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0728661865969915</v>
+        <v>-0.190172378659162</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0659036189623339</v>
+        <v>0.251219791291281</v>
       </c>
       <c r="D21" t="n">
-        <v>0.946428571428571</v>
+        <v>0.973214285714286</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1483,22 +1693,22 @@
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>4.25</v>
+        <v>5.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22">
@@ -1506,40 +1716,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="n">
-        <v>0.346924793483003</v>
+        <v>-0.308089960670715</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0657206757950282</v>
+        <v>-0.549546854291027</v>
       </c>
       <c r="D22" t="n">
-        <v>0.910714285714286</v>
+        <v>0.986607142857143</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
@@ -1547,40 +1757,40 @@
         <v>34</v>
       </c>
       <c r="B23" t="n">
-        <v>0.869213045094679</v>
+        <v>-0.410335584180084</v>
       </c>
       <c r="C23" t="n">
-        <v>0.272870819028845</v>
+        <v>0.534615410906336</v>
       </c>
       <c r="D23" t="n">
-        <v>0.946428571428571</v>
+        <v>0.950892857142857</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>20</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1588,13 +1798,13 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0866301676438059</v>
+        <v>-0.391395319301937</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.568614738301073</v>
+        <v>-0.426400580121325</v>
       </c>
       <c r="D24" t="n">
-        <v>0.941964285714286</v>
+        <v>0.955357142857143</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1603,25 +1813,25 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1629,31 +1839,31 @@
         <v>36</v>
       </c>
       <c r="B25" t="n">
-        <v>0.472543440200714</v>
+        <v>-0.408735802273795</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0517986240315356</v>
+        <v>-0.259358218688404</v>
       </c>
       <c r="D25" t="n">
-        <v>0.964285714285714</v>
+        <v>0.973214285714286</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3.25</v>
       </c>
       <c r="J25" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>3.25</v>
@@ -1662,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="26">
@@ -1670,13 +1880,13 @@
         <v>37</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0538742509413934</v>
+        <v>0.588011602978789</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.550516666693306</v>
+        <v>-0.168792034828702</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9375</v>
+        <v>0.995535714285714</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -1685,25 +1895,25 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27">
@@ -1711,40 +1921,40 @@
         <v>38</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.190172378659162</v>
+        <v>-1.04076376760125</v>
       </c>
       <c r="C27" t="n">
-        <v>0.251219791291281</v>
+        <v>0.282898411666659</v>
       </c>
       <c r="D27" t="n">
-        <v>0.973214285714286</v>
+        <v>0.96875</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>5.75</v>
+        <v>4.25</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1752,40 +1962,40 @@
         <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.811012476674196</v>
+        <v>-0.0438382796470265</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.460225334997608</v>
+        <v>0.111789907212935</v>
       </c>
       <c r="D28" t="n">
-        <v>0.933035714285714</v>
+        <v>0.9375</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K28" t="n">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="29">
@@ -1793,40 +2003,40 @@
         <v>40</v>
       </c>
       <c r="B29" t="n">
-        <v>0.253525010037032</v>
+        <v>0.435477613865855</v>
       </c>
       <c r="C29" t="n">
-        <v>0.392317811155322</v>
+        <v>-0.17303545153939</v>
       </c>
       <c r="D29" t="n">
-        <v>0.933035714285714</v>
+        <v>0.941964285714286</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M29" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1834,40 +2044,40 @@
         <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.385620742602811</v>
+        <v>0.351109671764859</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.580220421597914</v>
+        <v>0.527889176977679</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9375</v>
+        <v>0.941964285714286</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K30" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L30" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1875,40 +2085,40 @@
         <v>42</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.464206567324447</v>
+        <v>0.22027238087416</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.176989073921651</v>
+        <v>-0.0925897102308717</v>
       </c>
       <c r="D31" t="n">
-        <v>0.973214285714286</v>
+        <v>0.9375</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1916,40 +2126,40 @@
         <v>43</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.374874293698588</v>
+        <v>-0.186641886443583</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.142942306843011</v>
+        <v>0.214706919322879</v>
       </c>
       <c r="D32" t="n">
-        <v>0.973214285714286</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="K32" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1957,13 +2167,13 @@
         <v>44</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.150219857015816</v>
+        <v>0.508684746010287</v>
       </c>
       <c r="C33" t="n">
-        <v>0.240224511896538</v>
+        <v>0.0967284565603839</v>
       </c>
       <c r="D33" t="n">
-        <v>0.973214285714286</v>
+        <v>0.995535714285714</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -1972,22 +2182,22 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="L33" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M33" t="n">
         <v>3.5</v>
@@ -1998,40 +2208,40 @@
         <v>45</v>
       </c>
       <c r="B34" t="n">
-        <v>0.183744607630126</v>
+        <v>-0.0728661865969915</v>
       </c>
       <c r="C34" t="n">
-        <v>0.129087838048499</v>
+        <v>0.0659036189623339</v>
       </c>
       <c r="D34" t="n">
-        <v>0.986607142857143</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>4.25</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>4.25</v>
       </c>
       <c r="K34" t="n">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -2039,40 +2249,40 @@
         <v>46</v>
       </c>
       <c r="B35" t="n">
-        <v>0.588011602978789</v>
+        <v>-0.455986130292609</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.168792034828702</v>
+        <v>0.698468523718166</v>
       </c>
       <c r="D35" t="n">
-        <v>0.995535714285714</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="K35" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2080,40 +2290,40 @@
         <v>47</v>
       </c>
       <c r="B36" t="n">
-        <v>0.827679703763276</v>
+        <v>0.262121726642503</v>
       </c>
       <c r="C36" t="n">
-        <v>0.304223504098604</v>
+        <v>0.497327810362356</v>
       </c>
       <c r="D36" t="n">
-        <v>0.96875</v>
+        <v>0.986607142857143</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
         <v>4.5</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="L36" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37">
@@ -2121,37 +2331,37 @@
         <v>48</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.835685984699895</v>
+        <v>-0.160677725725169</v>
       </c>
       <c r="C37" t="n">
-        <v>0.074381939970277</v>
+        <v>-0.473220386212769</v>
       </c>
       <c r="D37" t="n">
         <v>0.964285714285714</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H37" t="n">
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
@@ -2162,16 +2372,16 @@
         <v>49</v>
       </c>
       <c r="B38" t="n">
-        <v>0.39796758752273</v>
+        <v>0.361846537923025</v>
       </c>
       <c r="C38" t="n">
-        <v>0.351407291739862</v>
+        <v>0.0102439970833696</v>
       </c>
       <c r="D38" t="n">
-        <v>0.955357142857143</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -2180,22 +2390,22 @@
         <v>20</v>
       </c>
       <c r="H38" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="L38" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2203,13 +2413,13 @@
         <v>50</v>
       </c>
       <c r="B39" t="n">
-        <v>0.908610666802351</v>
+        <v>-0.323390652124151</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.31286214397717</v>
+        <v>0.546844875379064</v>
       </c>
       <c r="D39" t="n">
-        <v>0.96875</v>
+        <v>0.973214285714286</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
@@ -2218,25 +2428,25 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="K39" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M39" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2244,40 +2454,40 @@
         <v>51</v>
       </c>
       <c r="B40" t="n">
-        <v>0.320308346063493</v>
+        <v>0.908610666802351</v>
       </c>
       <c r="C40" t="n">
-        <v>0.233141100845693</v>
+        <v>-0.31286214397717</v>
       </c>
       <c r="D40" t="n">
         <v>0.96875</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K40" t="n">
         <v>4.75</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.25</v>
       </c>
       <c r="L40" t="n">
         <v>2.5</v>
       </c>
       <c r="M40" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="41">
@@ -2285,40 +2495,40 @@
         <v>52</v>
       </c>
       <c r="B41" t="n">
-        <v>0.759333311902685</v>
+        <v>-0.150219857015816</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.320935955265457</v>
+        <v>0.240224511896538</v>
       </c>
       <c r="D41" t="n">
-        <v>0.995535714285714</v>
+        <v>0.973214285714286</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M41" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="42">
@@ -2326,40 +2536,40 @@
         <v>53</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0645299285981267</v>
+        <v>-0.0129758571248875</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0471881184437661</v>
+        <v>-0.462324983486742</v>
       </c>
       <c r="D42" t="n">
-        <v>0.964285714285714</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H42" t="n">
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="K42" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="M42" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="43">
@@ -2367,31 +2577,31 @@
         <v>54</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.408735802273795</v>
+        <v>0.472543440200714</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.259358218688404</v>
+        <v>0.0517986240315356</v>
       </c>
       <c r="D43" t="n">
-        <v>0.973214285714286</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
         <v>3.25</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="K43" t="n">
         <v>3.25</v>
@@ -2400,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2408,31 +2618,31 @@
         <v>55</v>
       </c>
       <c r="B44" t="n">
-        <v>0.508684746010287</v>
+        <v>-0.753122053376958</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0967284565603839</v>
+        <v>-0.542168607314626</v>
       </c>
       <c r="D44" t="n">
-        <v>0.995535714285714</v>
+        <v>0.991071428571429</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J44" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
         <v>4.25</v>
@@ -2441,7 +2651,7 @@
         <v>4.5</v>
       </c>
       <c r="M44" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2449,13 +2659,13 @@
         <v>56</v>
       </c>
       <c r="B45" t="n">
-        <v>0.207167206175887</v>
+        <v>-0.811012476674196</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.13239287933795</v>
+        <v>-0.460225334997608</v>
       </c>
       <c r="D45" t="n">
-        <v>0.964285714285714</v>
+        <v>0.933035714285714</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
@@ -2464,25 +2674,25 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J45" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5</v>
       </c>
       <c r="K45" t="n">
         <v>4.25</v>
       </c>
       <c r="L45" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M45" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2490,40 +2700,40 @@
         <v>57</v>
       </c>
       <c r="B46" t="n">
-        <v>0.321082266167187</v>
+        <v>0.181296795137673</v>
       </c>
       <c r="C46" t="n">
-        <v>0.54449635800587</v>
+        <v>-0.517947380473064</v>
       </c>
       <c r="D46" t="n">
-        <v>0.986607142857143</v>
+        <v>0.995535714285714</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I46" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J46" t="n">
         <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L46" t="n">
         <v>3.5</v>
       </c>
       <c r="M46" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2531,40 +2741,40 @@
         <v>58</v>
       </c>
       <c r="B47" t="n">
-        <v>0.181296795137673</v>
+        <v>-0.245763871582123</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.517947380473064</v>
+        <v>-0.284763021688613</v>
       </c>
       <c r="D47" t="n">
-        <v>0.995535714285714</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H47" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="K47" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L47" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="48">
@@ -2572,13 +2782,13 @@
         <v>59</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.329007248786418</v>
+        <v>0.446565113069427</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.13937077533142</v>
+        <v>0.0836133991560795</v>
       </c>
       <c r="D48" t="n">
-        <v>0.964285714285714</v>
+        <v>0.9375</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -2587,25 +2797,25 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H48" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
         <v>4.25</v>
       </c>
-      <c r="J48" t="n">
-        <v>3</v>
-      </c>
       <c r="K48" t="n">
         <v>3</v>
       </c>
       <c r="L48" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="M48" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2613,13 +2823,13 @@
         <v>60</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.410335584180084</v>
+        <v>-0.135200377277708</v>
       </c>
       <c r="C49" t="n">
-        <v>0.534615410906336</v>
+        <v>-0.279204033307014</v>
       </c>
       <c r="D49" t="n">
-        <v>0.950892857142857</v>
+        <v>0.973214285714286</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -2628,25 +2838,25 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H49" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I49" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J49" t="n">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="K49" t="n">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2654,34 +2864,34 @@
         <v>61</v>
       </c>
       <c r="B50" t="n">
-        <v>0.284701718945326</v>
+        <v>-0.0474157036830833</v>
       </c>
       <c r="C50" t="n">
-        <v>0.106699809748697</v>
+        <v>0.0730733668247785</v>
       </c>
       <c r="D50" t="n">
         <v>0.964285714285714</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J50" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="K50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L50" t="n">
         <v>3.5</v>
@@ -2695,37 +2905,37 @@
         <v>62</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177774578433842</v>
+        <v>-0.678684835356282</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0163552337005339</v>
+        <v>0.221676133308613</v>
       </c>
       <c r="D51" t="n">
-        <v>0.982142857142857</v>
+        <v>0.991071428571429</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
         <v>4.75</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L51" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
         <v>3.5</v>
@@ -2736,13 +2946,13 @@
         <v>63</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.412103708044823</v>
+        <v>-0.156573830576671</v>
       </c>
       <c r="C52" t="n">
-        <v>0.185942945643678</v>
+        <v>-0.571607356449761</v>
       </c>
       <c r="D52" t="n">
-        <v>0.982142857142857</v>
+        <v>0.9375</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -2754,22 +2964,22 @@
         <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
         <v>5.25</v>
       </c>
       <c r="K52" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2777,40 +2987,40 @@
         <v>64</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.304531770206946</v>
+        <v>-0.580202723282794</v>
       </c>
       <c r="C53" t="n">
-        <v>0.331677538525456</v>
+        <v>-0.420104381273807</v>
       </c>
       <c r="D53" t="n">
-        <v>0.924107142857143</v>
+        <v>0.986607142857143</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H53" t="n">
         <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K53" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L53" t="n">
         <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="54">
@@ -2818,13 +3028,13 @@
         <v>65</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0215654825671017</v>
+        <v>0.116724645785949</v>
       </c>
       <c r="C54" t="n">
-        <v>0.13446271815695</v>
+        <v>0.428665677668079</v>
       </c>
       <c r="D54" t="n">
-        <v>0.959821428571429</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -2836,22 +3046,22 @@
         <v>22</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J54" t="n">
         <v>4.75</v>
       </c>
-      <c r="J54" t="n">
-        <v>5.25</v>
-      </c>
       <c r="K54" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="L54" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M54" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2859,13 +3069,13 @@
         <v>66</v>
       </c>
       <c r="B55" t="n">
-        <v>0.500242684109391</v>
+        <v>0.188065657421055</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.168690712018364</v>
+        <v>0.10640379035972</v>
       </c>
       <c r="D55" t="n">
-        <v>0.901785714285714</v>
+        <v>0.973214285714286</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -2874,22 +3084,22 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H55" t="n">
         <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J55" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L55" t="n">
         <v>2.5</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
@@ -2900,31 +3110,31 @@
         <v>67</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0307433341084646</v>
+        <v>0.186073891009762</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0461527076231727</v>
+        <v>-0.133697790245049</v>
       </c>
       <c r="D56" t="n">
-        <v>0.950892857142857</v>
+        <v>0.991071428571429</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I56" t="n">
         <v>4.75</v>
       </c>
       <c r="J56" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
         <v>4.5</v>
@@ -2933,7 +3143,7 @@
         <v>3.5</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="57">
@@ -2941,13 +3151,13 @@
         <v>68</v>
       </c>
       <c r="B57" t="n">
-        <v>0.43886705707759</v>
+        <v>-0.155172510300969</v>
       </c>
       <c r="C57" t="n">
-        <v>0.298301556298473</v>
+        <v>0.332541033079622</v>
       </c>
       <c r="D57" t="n">
-        <v>0.986607142857143</v>
+        <v>0.96875</v>
       </c>
       <c r="E57" t="n">
         <v>2</v>
@@ -2959,22 +3169,22 @@
         <v>21</v>
       </c>
       <c r="H57" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="58">
@@ -2982,40 +3192,40 @@
         <v>69</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.700656049216354</v>
+        <v>0.404121153177559</v>
       </c>
       <c r="C58" t="n">
-        <v>0.118143921335619</v>
+        <v>0.276133178766087</v>
       </c>
       <c r="D58" t="n">
-        <v>0.964285714285714</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I58" t="n">
         <v>4.5</v>
       </c>
       <c r="J58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K58" t="n">
         <v>4.25</v>
       </c>
-      <c r="K58" t="n">
-        <v>4</v>
-      </c>
       <c r="L58" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -3023,13 +3233,13 @@
         <v>70</v>
       </c>
       <c r="B59" t="n">
-        <v>0.114108824457804</v>
+        <v>0.154023770316503</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.415845012119493</v>
+        <v>0.26048043343472</v>
       </c>
       <c r="D59" t="n">
-        <v>0.955357142857143</v>
+        <v>0.96875</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -3038,25 +3248,25 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K59" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="60">
@@ -3064,40 +3274,40 @@
         <v>71</v>
       </c>
       <c r="B60" t="n">
-        <v>0.523229470501592</v>
+        <v>-0.113589710795068</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.19307365358025</v>
+        <v>0.0378305732944142</v>
       </c>
       <c r="D60" t="n">
-        <v>0.973214285714286</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H60" t="n">
         <v>4.5</v>
       </c>
       <c r="I60" t="n">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="J60" t="n">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="L60" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="61">
@@ -3105,40 +3315,40 @@
         <v>72</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0888399687682337</v>
+        <v>-0.570314206307698</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.298076100810759</v>
+        <v>0.392904497639056</v>
       </c>
       <c r="D61" t="n">
-        <v>0.991071428571429</v>
+        <v>0.919642857142857</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H61" t="n">
         <v>5</v>
       </c>
       <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4.25</v>
       </c>
       <c r="K61" t="n">
         <v>3.25</v>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3146,40 +3356,40 @@
         <v>73</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.135200377277708</v>
+        <v>-0.359997831883096</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.279204033307014</v>
+        <v>0.416051791384575</v>
       </c>
       <c r="D62" t="n">
-        <v>0.973214285714286</v>
+        <v>0.959821428571429</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H62" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="J62" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="K62" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -3187,13 +3397,13 @@
         <v>74</v>
       </c>
       <c r="B63" t="n">
-        <v>0.358392585379081</v>
+        <v>-1.0084168522137</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.55842138888127</v>
+        <v>0.116627945016614</v>
       </c>
       <c r="D63" t="n">
-        <v>0.964285714285714</v>
+        <v>0.919642857142857</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -3202,25 +3412,25 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="64">
@@ -3228,13 +3438,13 @@
         <v>75</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.391395319301937</v>
+        <v>0.19876258325829</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.426400580121325</v>
+        <v>0.079358222857401</v>
       </c>
       <c r="D64" t="n">
-        <v>0.955357142857143</v>
+        <v>0.995535714285714</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -3246,22 +3456,22 @@
         <v>23</v>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -3269,40 +3479,40 @@
         <v>76</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.364532618614736</v>
+        <v>0.0150504862786045</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0930906882336542</v>
+        <v>0.398483501659661</v>
       </c>
       <c r="D65" t="n">
-        <v>0.964285714285714</v>
+        <v>0.96875</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H65" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I65" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="L65" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -3310,40 +3520,40 @@
         <v>77</v>
       </c>
       <c r="B66" t="n">
-        <v>0.351109671764859</v>
+        <v>-0.412103708044823</v>
       </c>
       <c r="C66" t="n">
-        <v>0.527889176977679</v>
+        <v>0.185942945643678</v>
       </c>
       <c r="D66" t="n">
-        <v>0.941964285714286</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H66" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="J66" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="K66" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
         <v>4</v>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3351,13 +3561,13 @@
         <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>0.464930488974579</v>
+        <v>-0.347192741763366</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.237942546913373</v>
+        <v>-0.0759921081309574</v>
       </c>
       <c r="D67" t="n">
-        <v>0.995535714285714</v>
+        <v>0.941964285714286</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -3366,22 +3576,22 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H67" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I67" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5</v>
+      </c>
+      <c r="K67" t="n">
         <v>4.75</v>
       </c>
-      <c r="J67" t="n">
-        <v>4</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L67" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
         <v>4.5</v>
@@ -3392,13 +3602,13 @@
         <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.600935120215886</v>
+        <v>0.282501139117269</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.0387886130449466</v>
+        <v>-0.0442434075234734</v>
       </c>
       <c r="D68" t="n">
-        <v>0.977678571428571</v>
+        <v>0.96875</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -3407,25 +3617,25 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
         <v>3.75</v>
       </c>
       <c r="L68" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="M68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3433,40 +3643,40 @@
         <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>0.435477613865855</v>
+        <v>0.780575932460278</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.17303545153939</v>
+        <v>-0.00100950615030904</v>
       </c>
       <c r="D69" t="n">
-        <v>0.941964285714286</v>
+        <v>0.973214285714286</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H69" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="J69" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K69" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L69" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="70">
@@ -3474,37 +3684,37 @@
         <v>81</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.512035520550834</v>
+        <v>-0.0120847746508552</v>
       </c>
       <c r="C70" t="n">
-        <v>0.45197481721343</v>
+        <v>-0.487886315021161</v>
       </c>
       <c r="D70" t="n">
-        <v>0.946428571428571</v>
+        <v>0.959821428571429</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I70" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="J70" t="n">
         <v>4.5</v>
       </c>
       <c r="K70" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L70" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
@@ -3515,40 +3725,40 @@
         <v>82</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.574842635388953</v>
+        <v>0.869213045094679</v>
       </c>
       <c r="C71" t="n">
-        <v>0.293916006226456</v>
+        <v>0.272870819028845</v>
       </c>
       <c r="D71" t="n">
-        <v>0.986607142857143</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H71" t="n">
         <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="K71" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L71" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="72">
@@ -3556,40 +3766,40 @@
         <v>83</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.444255782245403</v>
+        <v>-0.153255001649625</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.380120134313822</v>
+        <v>0.649400589834297</v>
       </c>
       <c r="D72" t="n">
-        <v>0.946428571428571</v>
+        <v>0.959821428571429</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H72" t="n">
         <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="K72" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="L72" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M72" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="73">
@@ -3597,13 +3807,13 @@
         <v>84</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0306231530206444</v>
+        <v>0.626553754745981</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.175479666196852</v>
+        <v>-0.141635049814937</v>
       </c>
       <c r="D73" t="n">
-        <v>0.941964285714286</v>
+        <v>0.901785714285714</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -3612,25 +3822,25 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="L73" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M73" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3638,13 +3848,13 @@
         <v>85</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.186641886443583</v>
+        <v>-0.184541483082734</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214706919322879</v>
+        <v>0.402922463063339</v>
       </c>
       <c r="D74" t="n">
-        <v>0.982142857142857</v>
+        <v>0.90625</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -3653,25 +3863,25 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I74" t="n">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="J74" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="75">
@@ -3679,40 +3889,40 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.0811033394406229</v>
+        <v>-0.0273906617842989</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.139673822915076</v>
+        <v>0.629004288247708</v>
       </c>
       <c r="D75" t="n">
-        <v>0.991071428571429</v>
+        <v>0.955357142857143</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H75" t="n">
         <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="K75" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="76">
@@ -3720,13 +3930,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.353689209371727</v>
+        <v>0.43886705707759</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.191168992113533</v>
+        <v>0.298301556298473</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9375</v>
+        <v>0.986607142857143</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -3735,25 +3945,25 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H76" t="n">
         <v>5.5</v>
       </c>
       <c r="I76" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="K76" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L76" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M76" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -3761,40 +3971,40 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.496269916298885</v>
+        <v>0.776635488697715</v>
       </c>
       <c r="C77" t="n">
-        <v>0.244734463434311</v>
+        <v>0.0917631507379379</v>
       </c>
       <c r="D77" t="n">
-        <v>0.924107142857143</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="K77" t="n">
         <v>2.75</v>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="78">
@@ -3802,13 +4012,13 @@
         <v>89</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0150504862786045</v>
+        <v>-0.497119811746828</v>
       </c>
       <c r="C78" t="n">
-        <v>0.398483501659661</v>
+        <v>0.069406215961334</v>
       </c>
       <c r="D78" t="n">
-        <v>0.96875</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -3817,25 +4027,25 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H78" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="J78" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K78" t="n">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="79">
@@ -3843,13 +4053,13 @@
         <v>90</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.570314206307698</v>
+        <v>0.284701718945326</v>
       </c>
       <c r="C79" t="n">
-        <v>0.392904497639056</v>
+        <v>0.106699809748697</v>
       </c>
       <c r="D79" t="n">
-        <v>0.919642857142857</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -3858,25 +4068,25 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H79" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J79" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="K79" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L79" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="80">
@@ -3884,13 +4094,13 @@
         <v>91</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.44848124273028</v>
+        <v>0.500740110232739</v>
       </c>
       <c r="C80" t="n">
-        <v>0.329209337032501</v>
+        <v>0.206835322827863</v>
       </c>
       <c r="D80" t="n">
-        <v>0.928571428571429</v>
+        <v>0.901785714285714</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -3899,25 +4109,25 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I80" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="J80" t="n">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M80" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="81">
@@ -3925,13 +4135,13 @@
         <v>92</v>
       </c>
       <c r="B81" t="n">
-        <v>0.229529230082325</v>
+        <v>0.487630942762765</v>
       </c>
       <c r="C81" t="n">
-        <v>0.825992977285306</v>
+        <v>0.0966126172858943</v>
       </c>
       <c r="D81" t="n">
-        <v>0.973214285714286</v>
+        <v>0.933035714285714</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -3946,19 +4156,19 @@
         <v>6</v>
       </c>
       <c r="I81" t="n">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="J81" t="n">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="K81" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -3966,13 +4176,13 @@
         <v>93</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.222988264113878</v>
+        <v>-0.700656049216354</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.214077398896373</v>
+        <v>0.118143921335619</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -3981,25 +4191,25 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="K82" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M82" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="83">
@@ -4007,19 +4217,19 @@
         <v>94</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0425122536481677</v>
+        <v>-0.0618259723036481</v>
       </c>
       <c r="C83" t="n">
-        <v>0.591269386522919</v>
+        <v>0.130416799295205</v>
       </c>
       <c r="D83" t="n">
-        <v>0.973214285714286</v>
+        <v>0.977678571428571</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>21</v>
@@ -4028,19 +4238,19 @@
         <v>5</v>
       </c>
       <c r="I83" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J83" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K83" t="n">
         <v>3.75</v>
       </c>
       <c r="L83" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="84">
@@ -4048,13 +4258,13 @@
         <v>95</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.0151731515449978</v>
+        <v>-0.353608622236676</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.0647366337935633</v>
+        <v>-0.805655831659361</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9375</v>
+        <v>0.901785714285714</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -4063,22 +4273,22 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J84" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K84" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
@@ -4089,13 +4299,13 @@
         <v>96</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.113589710795068</v>
+        <v>0.346924793483003</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0378305732944142</v>
+        <v>0.0657206757950282</v>
       </c>
       <c r="D85" t="n">
-        <v>0.964285714285714</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
@@ -4110,19 +4320,19 @@
         <v>4.5</v>
       </c>
       <c r="I85" t="n">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="J85" t="n">
         <v>4.25</v>
       </c>
       <c r="K85" t="n">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="L85" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="M85" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -4130,37 +4340,37 @@
         <v>97</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.04076376760125</v>
+        <v>-0.0856859199089128</v>
       </c>
       <c r="C86" t="n">
-        <v>0.282898411666659</v>
+        <v>0.402852172762886</v>
       </c>
       <c r="D86" t="n">
-        <v>0.96875</v>
+        <v>0.919642857142857</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I86" t="n">
         <v>3.25</v>
       </c>
       <c r="J86" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="K86" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L86" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
@@ -4171,13 +4381,13 @@
         <v>98</v>
       </c>
       <c r="B87" t="n">
-        <v>0.237980670454736</v>
+        <v>0.0298668694470141</v>
       </c>
       <c r="C87" t="n">
-        <v>0.274433374675052</v>
+        <v>0.336480888643624</v>
       </c>
       <c r="D87" t="n">
-        <v>0.959821428571429</v>
+        <v>0.955357142857143</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
@@ -4186,25 +4396,2895 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J87" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
         <v>3.25</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.385620742602811</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.580220421597914</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>20</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.496269916298885</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.244734463434311</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.924107142857143</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>24</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>4</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.180087907058864</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.0787708135466882</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.982142857142857</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.183611255950931</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0.187878690579594</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.959821428571429</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>24</v>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+      <c r="I91" t="n">
+        <v>4</v>
+      </c>
+      <c r="J91" t="n">
+        <v>4</v>
+      </c>
+      <c r="K91" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.154135022507219</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.430366192300785</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.982142857142857</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>22</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6</v>
+      </c>
+      <c r="K92" t="n">
+        <v>4</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.423634191242805</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.495120459719719</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>19</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.600340850120332</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.0844911070334868</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.995535714285714</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.405693748738317</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.134230185587172</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.991071428571429</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>21</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.0100550415303173</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.00502370046062595</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.964285714285714</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>18</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+      <c r="I96" t="n">
+        <v>4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>4</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.512035520550834</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.45197481721343</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.946428571428571</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" t="n">
+        <v>22</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.358392585379081</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.55842138888127</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.964285714285714</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>19</v>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>5</v>
+      </c>
+      <c r="L98" t="n">
+        <v>5</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.440057495759845</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.235449944495249</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.933035714285714</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>25</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.464930488974579</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.237942546913373</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.995535714285714</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>19</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.231308882070634</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.345843029635525</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.973214285714286</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>23</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.414260765919341</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.104615635083006</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.946428571428571</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>22</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.177774578433842</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0163552337005339</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.982142857142857</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>19</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K103" t="n">
+        <v>4</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.000784455601801071</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0.328204602229314</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.959821428571429</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>19</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.304531770206946</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.331677538525456</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.924107142857143</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>20</v>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L105" t="n">
+        <v>4</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.332078962645918</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-0.196040598449901</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>22</v>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>4</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.26374771369888</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-0.0650655066415329</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.933035714285714</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>23</v>
+      </c>
+      <c r="H107" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J107" t="n">
+        <v>5</v>
+      </c>
+      <c r="K107" t="n">
+        <v>4</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.932584828522132</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0776201802011238</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>19</v>
+      </c>
+      <c r="H108" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L108" t="n">
+        <v>3</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.26329657199785</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.110441549452223</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.959821428571429</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>20</v>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5</v>
+      </c>
+      <c r="K109" t="n">
+        <v>4</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.600935120215886</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.0387886130449466</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.977678571428571</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>24</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4</v>
+      </c>
+      <c r="K110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.00421603111500701</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.423671045322022</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.986607142857143</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>19</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.0538742509413934</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.550516666693306</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>21</v>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4</v>
+      </c>
+      <c r="J112" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="K112" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.0605274078150071</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.188002401196318</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.986607142857143</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>24</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K113" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.264971932764614</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.61012182779536</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>25</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L114" t="n">
+        <v>5</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.635056070060494</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.268944344374154</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.986607142857143</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>26</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J115" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K115" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L115" t="n">
+        <v>4</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.413152453616277</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.0856917416225054</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.959821428571429</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>20</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.406137890771324</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.613393442766834</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.901785714285714</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" t="n">
+        <v>22</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J117" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M117" t="n">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.585094184565023</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.36330773095157</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.941964285714286</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>37</v>
+      </c>
+      <c r="H118" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L118" t="n">
+        <v>4</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.44848124273028</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.329209337032501</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>23</v>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K119" t="n">
+        <v>4</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2</v>
+      </c>
+      <c r="M119" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.827679703763276</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.304223504098604</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>27</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M120" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.835685984699895</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.074381939970277</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.964285714285714</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>19</v>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>4</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L121" t="n">
+        <v>4</v>
+      </c>
+      <c r="M121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.253525010037032</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.392317811155322</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.933035714285714</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>19</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M122" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.207204537152803</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.218146749407983</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.973214285714286</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>22</v>
+      </c>
+      <c r="H123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L123" t="n">
+        <v>4</v>
+      </c>
+      <c r="M123" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.355104903810075</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0862998947460794</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>20</v>
+      </c>
+      <c r="H124" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I124" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K124" t="n">
+        <v>4</v>
+      </c>
+      <c r="L124" t="n">
+        <v>4</v>
+      </c>
+      <c r="M124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.152412406396849</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0841386060033589</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.977678571428571</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>21</v>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J125" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L125" t="n">
+        <v>2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.523229470501592</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.19307365358025</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.973214285714286</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" t="n">
+        <v>19</v>
+      </c>
+      <c r="H126" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>4</v>
+      </c>
+      <c r="L126" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.297420389451142</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.100367958479398</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.955357142857143</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="n">
+        <v>23</v>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K127" t="n">
+        <v>5</v>
+      </c>
+      <c r="L127" t="n">
+        <v>5</v>
+      </c>
+      <c r="M127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.39796758752273</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.351407291739862</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.955357142857143</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>20</v>
+      </c>
+      <c r="H128" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6</v>
+      </c>
+      <c r="K128" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.500242684109391</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-0.168690712018364</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.901785714285714</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>21</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L129" t="n">
+        <v>3</v>
+      </c>
+      <c r="M129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.03355909437464</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.569551221005951</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.986607142857143</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>20</v>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M130" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.183744607630126</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.129087838048499</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.986607142857143</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" t="n">
+        <v>24</v>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6</v>
+      </c>
+      <c r="J131" t="n">
+        <v>6</v>
+      </c>
+      <c r="K131" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L131" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.176142008247303</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-0.15862990760175</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.959821428571429</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>21</v>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M132" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-0.444255782245403</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-0.380120134313822</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.946428571428571</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" t="n">
+        <v>19</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J133" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K133" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.759333311902685</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-0.320935955265457</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.995535714285714</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2</v>
+      </c>
+      <c r="G134" t="n">
+        <v>24</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4</v>
+      </c>
+      <c r="K134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M134" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.172892470266659</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.326163434344585</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.986607142857143</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2</v>
+      </c>
+      <c r="G135" t="n">
+        <v>19</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I135" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K135" t="n">
+        <v>5</v>
+      </c>
+      <c r="L135" t="n">
+        <v>4</v>
+      </c>
+      <c r="M135" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-0.464206567324447</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0.176989073921651</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.973214285714286</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>20</v>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-0.364532618614736</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0930906882336542</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.964285714285714</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" t="n">
+        <v>23</v>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4</v>
+      </c>
+      <c r="K137" t="n">
+        <v>4</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.574842635388953</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.293916006226456</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.986607142857143</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>23</v>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K138" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L138" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.0888399687682337</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.298076100810759</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.991071428571429</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>21</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+      <c r="I139" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L139" t="n">
+        <v>4</v>
+      </c>
+      <c r="M139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.0215654825671017</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.13446271815695</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.959821428571429</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>22</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J140" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K140" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M140" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.0824491727483672</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.130798324243511</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.977678571428571</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="n">
+        <v>21</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4</v>
+      </c>
+      <c r="K141" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L141" t="n">
+        <v>2</v>
+      </c>
+      <c r="M141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.229529230082325</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.825992977285306</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.973214285714286</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>20</v>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J142" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M142" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.283044249371531</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.0741917362759166</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.941964285714286</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>20</v>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J143" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K143" t="n">
+        <v>4</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M143" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.0307433341084646</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-0.0461527076231727</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.950892857142857</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>19</v>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+      <c r="I144" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J144" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="K144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L144" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.140001451535953</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-0.0955407165941637</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.950892857142857</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>28</v>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J145" t="n">
+        <v>5</v>
+      </c>
+      <c r="K145" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.10566616553173</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-0.0581409075541757</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.977678571428571</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2</v>
+      </c>
+      <c r="G146" t="n">
+        <v>21</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J146" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.353689209371727</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.191168992113533</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>29</v>
+      </c>
+      <c r="H147" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.555097629832434</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.115064809572944</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.991071428571429</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>23</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.0866301676438059</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.568614738301073</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.941964285714286</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>21</v>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+      <c r="I149" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.39597762109958</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0466097588745682</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.950892857142857</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>20</v>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+      <c r="I150" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J150" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K150" t="n">
+        <v>4</v>
+      </c>
+      <c r="L150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M150" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.0306231530206444</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.175479666196852</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.941964285714286</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>24</v>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+      <c r="I151" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="K151" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L151" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M151" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.43739075988863</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0141227074734274</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.955357142857143</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>21</v>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+      <c r="I152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J152" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K152" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.320308346063493</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.233141100845693</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>21</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.207167206175887</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.13239287933795</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.964285714285714</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>27</v>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J154" t="n">
+        <v>5</v>
+      </c>
+      <c r="K154" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M154" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.0151731515449978</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-0.0647366337935633</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>23</v>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+      <c r="I155" t="n">
+        <v>5</v>
+      </c>
+      <c r="J155" t="n">
+        <v>5</v>
+      </c>
+      <c r="K155" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.374874293698588</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0.142942306843011</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.973214285714286</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>20</v>
+      </c>
+      <c r="H156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J156" t="n">
+        <v>4</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+      <c r="M156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.0959980205310607</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.259738274123223</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.946428571428571</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>22</v>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M157" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
